--- a/文档/搜索爬取路径.xlsx
+++ b/文档/搜索爬取路径.xlsx
@@ -18,31 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
-    <t xml:space="preserve">Arrow </t>
-  </si>
-  <si>
-    <t>http://search.ickey.cn/site/getsup?keyword=STGB10NC60KDT4&amp;t=1494656874506&amp;store_id=1&amp;supplier_id=23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future</t>
-  </si>
-  <si>
-    <t>http://search.ickey.cn/site/getsup?keyword=STGB10NC60KDT4&amp;t=1494657008463&amp;store_id=1&amp;supplier_id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mouser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://search.ickey.cn/site/getsup?keyword=STGB10NC60KDT4&amp;t=1494657053369&amp;store_id=1&amp;supplier_id=25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
     <t>http://search.ickey.cn/site/getsup?keyword=STGB10NC60KDT4&amp;t=1494657127942&amp;store_id=1&amp;supplier_id=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,9 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧时</t>
-  </si>
-  <si>
     <t>http://search.ickey.cn/site/getsup?keyword=STGB10NC60KDT4&amp;t=1494657076431&amp;store_id=1&amp;supplier_id=22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,17 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chip One Stop</t>
-  </si>
-  <si>
-    <t>http://www.ichunt.com/GarbPart/SecNewsMouser.php?stockNum=0&amp;part=STGB10NC60KDT4&amp;flag=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ichunt.com/GarbPart/SecChip1Stop.php?stockNum=0&amp;part=STGB10NC60KDT4&amp;flag=14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.ichunt.com/GarbPart/SecChip1Stop.php?stockNum=0&amp;part=STGB10NC60KDT4&amp;flag=15 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,11 +59,6 @@
   </si>
   <si>
     <t>http://www.ichunt.com/GarbPart/SecChip1Stop.php?stockNum=0&amp;part=STGB10NC60KDT4&amp;flag=12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ickey
-http://www.ickey.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,43 +72,6 @@
     <t>Icgoo
 http://www.icgoo.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icgoo.net/search/getdata/?sup=future&amp;partno=LC03-6R2G&amp;qty=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>element14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icgoo.net/search/getdata/?sup=verical&amp;partno=LC03-6R2G&amp;qty=1</t>
-  </si>
-  <si>
-    <t>http://www.icgoo.net/search/getdata/?sup=rs&amp;partno=LC03-6R2G&amp;qty=1</t>
-  </si>
-  <si>
-    <t>Avnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icgoo.net/search/getdata/?sup=element14&amp;partno=LC03-6R2G&amp;qty=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icgoo.net/search/getdata/?sup=digikey&amp;partno=LC03-6R2G&amp;qty=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icgoo.net/search/getdata/?sup=avnet&amp;partno=LC03-6R2G&amp;qty=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icgoo.net/search/getdata/?sup=chip1stop&amp;partno=LC03-6R2G&amp;qty=1</t>
   </si>
   <si>
     <t>http://www.icgoo.net/search/getdata/?sup=arrow&amp;partno=LC03-6R2G&amp;qty=1</t>
@@ -165,12 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gys="6"</t>
-  </si>
-  <si>
-    <t>gys="8"</t>
-  </si>
-  <si>
     <t>gys="7"</t>
   </si>
   <si>
@@ -190,10 +103,6 @@
   </si>
   <si>
     <t>gys="152"</t>
-  </si>
-  <si>
-    <t>http://www.icgoo.net/search/getdata/?sup=mouser&amp;partno=LC03-6R2G&amp;qty=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>能量云商
@@ -220,6 +129,107 @@
   </si>
   <si>
     <t>猎芯网http://www.ichunt.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ickey
+http://www.ickey.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://search.ickey.cn/site/getsup?keyword=STGB10NC60KDT4&amp;t=1494656874506&amp;store_id=1&amp;supplier_id=23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://search.ickey.cn/site/getsup?keyword=STGB10NC60KDT4&amp;t=1494657053369&amp;store_id=1&amp;supplier_id=25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ichunt.com/GarbPart/SecChip1Stop.php?stockNum=0&amp;part=STGB10NC60KDT4&amp;flag=14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ichunt.com/GarbPart/SecNewsMouser.php?stockNum=0&amp;part=STGB10NC60KDT4&amp;flag=12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chip One Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://search.ickey.cn/site/getsup?keyword=STGB10NC60KDT4&amp;t=1494657008463&amp;store_id=1&amp;supplier_id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icgoo.net/search/getdata/?sup=future&amp;partno=LC03-6R2G&amp;qty=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrow </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icgoo.net/search/getdata/?sup=mouser&amp;partno=LC03-6R2G&amp;qty=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icgoo.net/search/getdata/?sup=digikey&amp;partno=LC03-6R2G&amp;qty=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icgoo.net/search/getdata/?sup=element14&amp;partno=LC03-6R2G&amp;qty=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icgoo.net/search/getdata/?sup=verical&amp;partno=LC03-6R2G&amp;qty=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icgoo.net/search/getdata/?sup=rs&amp;partno=LC03-6R2G&amp;qty=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icgoo.net/search/getdata/?sup=avnet&amp;partno=LC03-6R2G&amp;qty=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icgoo.net/search/getdata/?sup=chip1stop&amp;partno=LC03-6R2G&amp;qty=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gys="8"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gys="6"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,192 +1103,192 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1306,10 +1316,13 @@
     <hyperlink ref="I5" r:id="rId20"/>
     <hyperlink ref="D5" r:id="rId21"/>
     <hyperlink ref="B5" r:id="rId22"/>
+    <hyperlink ref="G5" r:id="rId23"/>
+    <hyperlink ref="H5" r:id="rId24"/>
+    <hyperlink ref="J5" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
-  <drawing r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 
